--- a/angular4.xlsx
+++ b/angular4.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="环境设定" sheetId="1" r:id="rId1"/>
     <sheet name="练习" sheetId="2" r:id="rId2"/>
     <sheet name="路由" sheetId="5" r:id="rId3"/>
     <sheet name="HTTP" sheetId="6" r:id="rId4"/>
-    <sheet name="heroes style" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="JWT" sheetId="7" r:id="rId5"/>
+    <sheet name="heroes style" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="394">
   <si>
     <t>1.install Node.js and npm</t>
   </si>
@@ -12801,6 +12802,162 @@
   </si>
   <si>
     <t>exports</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/qq_34438958/article/details/76051231</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Created by 何欣澄 on 2017/5/28 0028.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>import {Observable} from 'rxjs/Observable';</t>
+  </si>
+  <si>
+    <t>import {Injectable} from '@angular/core';</t>
+  </si>
+  <si>
+    <t>import {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Http,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RequestOptionsArgs,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  RequestOptions,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Response,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Headers</t>
+  </si>
+  <si>
+    <t>} from '@angular/http';</t>
+  </si>
+  <si>
+    <t>const mergeToken = (options: RequestOptionsArgs = {}) =&gt; { ①</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const newOptions = new RequestOptions({}).merge(options);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const newHeaders = new Headers(newOptions.headers);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const jwt = localStorage.getItem('jwt');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (jwt) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    newHeaders.set('authorization', `Bearer ${jwt}`);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  newOptions.headers = newHeaders;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return newOptions;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>@Injectable() ②</t>
+  </si>
+  <si>
+    <t>export class MyHttp {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constructor(private http: Http) { ③</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  get(url: string, options?: RequestOptionsArgs): Observable&lt;Response&gt; { ④</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.http.get(url, mergeToken(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  post(url: string, body: any, options?: RequestOptionsArgs): Observable&lt;Response&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.http.post(url, body, mergeToken(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  put(url: string, body: any, options?: RequestOptionsArgs): Observable&lt;Response&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.http.put(url, body, mergeToken(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  delete(url: string, options?: RequestOptionsArgs): Observable&lt;Response&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.http.delete(url, mergeToken(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  patch(url: string, body: any, options?: RequestOptionsArgs): Observable&lt;Response&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.http.patch(url, body, mergeToken(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  head(url: string, options?: RequestOptionsArgs): Observable&lt;Response&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.http.head(url, mergeToken(options));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">① 写一个常量function 将token放在http header的authorization 中 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">② 依赖注入 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">③ 引入 angular 的http 服务 </t>
+  </si>
+  <si>
+    <t>④ 封装各类动词的方法在每种请求中都加入 token</t>
+  </si>
+  <si>
+    <t>之后的所有请求后端都只需要使用自己封装号的这个MyHttp 服务就可以了。</t>
+  </si>
+  <si>
+    <t>当然登录时需要将token放在localStorage中，注销的时候需要将token移除</t>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/3cadd924a9df</t>
+  </si>
+  <si>
+    <t>Java实现</t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/wangcantian/article/details/74330458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring security </t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/hackyo/p/8004928.html</t>
+  </si>
+  <si>
+    <t>全集</t>
+  </si>
+  <si>
+    <t>http://blog.51cto.com/7308310/2072364?from=timeline</t>
+  </si>
+  <si>
+    <t>http://blog.51cto.com/7308310/category3.html</t>
   </si>
 </sst>
 </file>
@@ -15576,6 +15733,309 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AA68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27">
+      <c r="B2" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27">
+      <c r="B3" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="Z4" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="AA5" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="C7" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="C8" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="C9" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27">
+      <c r="C10" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="C11" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="C12" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="C13" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="C14" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="C15" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="C16" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15829,11 +16289,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AE34" sqref="AE34"/>
     </sheetView>
   </sheetViews>
